--- a/data/villa_fc.xlsx
+++ b/data/villa_fc.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">NOMBRE</t>
   </si>
@@ -40,31 +40,34 @@
     <t xml:space="preserve">Gil</t>
   </si>
   <si>
+    <t xml:space="preserve">2023/12/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebasti4n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/07/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacobo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
     <t xml:space="preserve">28/12/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebasti4n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/07/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/04/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacobo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel</t>
@@ -106,6 +109,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,10 +198,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.14"/>
   </cols>
@@ -269,74 +273,74 @@
         <v>3233073789</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>3235837848</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>3193917279</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>28304</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3165326067</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3157266898</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/villa_fc.xlsx
+++ b/data/villa_fc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorr\OneDrive\Documentos\ESTUDIO_PROGRAMACIÓN\Proyecto_1\villa_fc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5848C7-EC44-4B93-A974-8F36E262351B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF96230E-7731-40F4-BC1A-ECC78CDC5DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="855" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,64 +36,70 @@
     <t>NUMERO</t>
   </si>
   <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Sebasti4n</t>
+  </si>
+  <si>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>Manuela</t>
+  </si>
+  <si>
+    <t>Correa</t>
+  </si>
+  <si>
+    <t>Jacobo</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Carvajal</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Juan Jose</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Lina</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
     <t>ULTIMO_PAGO</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Gil</t>
-  </si>
-  <si>
-    <t>Sebasti4n</t>
-  </si>
-  <si>
-    <t>Cortes</t>
-  </si>
-  <si>
-    <t>Manuela</t>
-  </si>
-  <si>
-    <t>Correa</t>
-  </si>
-  <si>
-    <t>Jacobo</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Carvajal</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Juan Jose</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Lina</t>
-  </si>
-  <si>
-    <t>Franco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,11 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -446,137 +451,138 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3193228813</v>
       </c>
       <c r="D2" s="2">
         <v>44938</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3226803059</v>
       </c>
       <c r="D3" s="2">
         <v>45102</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3185957386</v>
       </c>
       <c r="D4" s="2">
         <v>45577</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1">
+        <v>3233073789</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>3233073789</v>
-      </c>
-      <c r="D5" s="3">
-        <v>44659</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3235837848</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>45534</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>3193917279</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>45645</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>28304</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>28304</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1">
+        <v>3165326067</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>3165326067</v>
-      </c>
-      <c r="D9" s="3">
-        <v>45247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3157266898</v>
       </c>
       <c r="D10" s="2">
